--- a/document/体系结构设计/接口.xlsx
+++ b/document/体系结构设计/接口.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软工大作业space\Hotel-Management-System\document\体系结构设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="15072" windowHeight="4476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UQi.me</author>
+  </authors>
+  <commentList>
+    <comment ref="A62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>UQi.me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
@@ -349,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +405,29 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,8 +452,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,12 +469,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,20 +762,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="93.5" customWidth="1"/>
+    <col min="2" max="2" width="93.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -713,12 +783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -726,12 +796,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -739,52 +809,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -792,32 +862,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -828,22 +898,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -851,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -859,12 +929,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -872,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -880,17 +950,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -898,12 +968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -911,57 +981,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -969,28 +1039,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1001,7 +1071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -1009,33 +1079,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -1043,7 +1113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1051,7 +1121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>74</v>
       </c>
@@ -1059,18 +1129,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1078,20 +1148,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -1099,7 +1169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>81</v>
       </c>
@@ -1107,17 +1177,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1127,7 +1199,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,7 +1212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
